--- a/연구자료/기능, 테이블 정의.xlsx
+++ b/연구자료/기능, 테이블 정의.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="150">
   <si>
     <t>main</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,14 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가맹점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ASU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일반 사용자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,22 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가맹점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ASU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>foreignkey(location.id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,14 +303,6 @@
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의 신규 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -355,102 +311,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가맹점 게시글 신규 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가맹점 게시글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가맹점 게시글 세부 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가맹점 게시글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 게시글 신규 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 게시글 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 게시글 세부 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 게시글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 게시글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가맹점 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규 가맹점 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가맹점 세부 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가맹점 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가맹점 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규 일반사용자 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가맹점 게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가맹점 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가맹점 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커뮤니티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보마당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>울릉도 오는법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,26 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 신규 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 세부 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FAQ 목록 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,30 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문의 세부 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가맹점 게시글 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신규 가맹점 등록과 같은html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,6 +376,288 @@
   </si>
   <si>
     <t>CharField</t>
+  </si>
+  <si>
+    <t>CharField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:loc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:cate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선릉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요식업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보마당
+info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티
+board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점 정보
+store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입
+join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인
+login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항
+notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의
+qna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점 게시판
+store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 게시판
+comm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점 목록 조회
+list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 가맹점 등록
+add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점 세부 조회
+read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점 정보 수정
+modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점 삭제
+delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점
+store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 사용자
+user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 일반사용자 등록
+add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지
+mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 조회
+read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정
+modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴
+resign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 목록 조회
+list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 신규 등록
+add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 세부 조회
+read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 수정
+modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 삭제
+delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 목록 조회
+list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 신규 등록
+add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 세부 조회
+read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 수정
+modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 작성
+answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 삭제
+user/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 수정
+answer/modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점 게시글 목록 조회
+list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점 게시글 신규 등록
+add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점 게시글 세부 조회
+read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점 게시글 수정
+modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점 게시글 삭제
+delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 게시글 목록 조회
+list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 게시글 신규 등록
+add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 게시글 세부 조회
+read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 게시글 수정
+modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 게시글 삭제
+delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -609,7 +711,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,6 +721,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,6 +836,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -716,9 +864,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1022,17 +1183,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.25" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="8" customWidth="1"/>
     <col min="8" max="8" width="2.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
@@ -1042,732 +1203,708 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
-      <c r="B1" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="21"/>
-      <c r="B4" s="20" t="s">
-        <v>108</v>
+      <c r="A4" s="33"/>
+      <c r="B4" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="21"/>
-      <c r="B10" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33">
+      <c r="A10" s="33"/>
+      <c r="B10" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="33">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="33">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="33">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="33">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="33">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="33">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="33">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="49.5">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="33">
+      <c r="A27" s="33"/>
+      <c r="B27" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="33">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="33">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="49.5">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="33">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="33">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="33">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="33">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="33">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="33">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="33">
+      <c r="A37" s="33"/>
+      <c r="B37" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="C37" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="33">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="33">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="33">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="33">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="33">
+      <c r="A42" s="33"/>
+      <c r="B42" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="33">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="33">
+      <c r="A44" s="33"/>
+      <c r="B44" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="33">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="33">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="33">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="33">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="33">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="49.5">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="21"/>
-      <c r="B27" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="49.5">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="33">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="21"/>
-      <c r="B37" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="33">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="33">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="A2:A46"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C37:C41"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B10:B26"/>
@@ -1785,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G11:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1805,519 +1942,634 @@
     <col min="15" max="15" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E1" s="17">
         <v>20</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="J1" s="15"/>
       <c r="L1" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O1" s="17"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18">
       <c r="C2" s="13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E2" s="13">
         <v>20</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="J2" s="14">
         <v>100</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="O2" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18">
       <c r="C3" s="13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E3" s="13">
         <v>20</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J3" s="14"/>
       <c r="M3" s="13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="C4" s="13" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J4" s="14"/>
       <c r="M4" s="13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18">
       <c r="C5" s="14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J5" s="14"/>
       <c r="M5" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="C6" s="14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>42</v>
+      <c r="H6" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="C7" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E7" s="13">
         <v>100</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="J7" s="14">
         <v>1</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="O7" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:18">
       <c r="C8" s="13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E8" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="C9" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="M9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="C10" s="13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E10" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:18">
       <c r="B12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E12" s="17"/>
       <c r="G12" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="J12" s="17"/>
       <c r="L12" s="9" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:18">
       <c r="C13" s="13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E13" s="13">
         <v>100</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="J13" s="13">
         <v>100</v>
       </c>
+      <c r="L13" t="s">
+        <v>91</v>
+      </c>
       <c r="M13" s="13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="O13" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:18">
       <c r="C14" s="13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E14" s="13"/>
       <c r="H14" s="13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="C15" s="13" t="s">
-        <v>42</v>
+      <c r="M14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>94</v>
+      </c>
+      <c r="R14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="C15" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="C16" s="13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:16">
       <c r="C17" s="13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="2:15">
-      <c r="C18" s="13" t="s">
-        <v>58</v>
+    <row r="18" spans="2:16">
+      <c r="C18" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E18" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:16">
       <c r="C19" s="13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E19" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21" s="9" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E21" s="18"/>
       <c r="G21" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="J21" s="17"/>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="25"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="C22" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="C22" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="D22" s="13" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E22" s="13"/>
       <c r="H22" s="13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="J22" s="13">
         <v>100</v>
       </c>
-      <c r="M22" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="O22" s="13">
+      <c r="L22" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" s="26">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:16">
       <c r="C23" s="13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E23" s="13"/>
       <c r="H23" s="13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="2:15">
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+    </row>
+    <row r="24" spans="2:16">
       <c r="C24" s="13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E24" s="13"/>
       <c r="H24" s="13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="2:15">
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+    </row>
+    <row r="25" spans="2:16">
       <c r="C25" s="13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E25" s="13"/>
       <c r="H25" s="13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="2:15">
-      <c r="C26" s="13" t="s">
-        <v>42</v>
+    <row r="26" spans="2:16">
+      <c r="C26" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
       <c r="C27" s="13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E27" s="13">
         <v>1</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="J27" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:15">
+      <c r="L27" t="s">
+        <v>102</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
       <c r="H28" s="13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J28" s="13"/>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
